--- a/src/main/webapp/statistics/gena_omission_amount_on_Front end.xlsx
+++ b/src/main/webapp/statistics/gena_omission_amount_on_Front end.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>gena omissions amount on Front end by period: 04.08.15 - 12.08.15</t>
+    <t>gena omissions amount on Front end by period: 30.07.15 - 07.08.15</t>
   </si>
   <si>
     <t>Training</t>
